--- a/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001980</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧量化驱动混合</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.55</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2018</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -618,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -656,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>851088</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>海通量化成长精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -694,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>850010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>海通量化成长精选一年持有期混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -732,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>851099</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>海通量化成长精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -996,36 +1080,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>001980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>中欧量化驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>25.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.2018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1034,36 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1072,36 +1156,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1110,36 +1194,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1148,36 +1232,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>851088</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合A</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1186,36 +1270,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>850010</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合B</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1224,120 +1308,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851099</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合C</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.29</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002815-崇达技术.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1023,7 +1210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
